--- a/diary/2019-10-07(L).xlsx
+++ b/diary/2019-10-07(L).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Daily-Eating\diary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thumbd12856\Desktop\Daily-Eating\diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>P</t>
   </si>
@@ -120,11 +120,23 @@
     <t>練球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>滷雞胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞塊 * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞翅 * 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -511,7 +523,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -617,81 +629,111 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>8.9499999999999993</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>26.8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>319.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>85.000000000000014</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="E9" s="1">
+        <f>B9*4+C9*4+D9*9</f>
+        <v>319.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E10" s="1">
+        <f>B10*4+C10*4+D10*9</f>
+        <v>85.000000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="1">
         <v>18.375</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="1">
         <v>11.7</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
+      <c r="E11" s="1">
+        <f>B11*4+C11*4+D11*9</f>
         <v>226.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.65</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.5500000000000007</v>
+      </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>122.55000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,19 +775,19 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>88.35</v>
+        <v>133.00000000000003</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>89.375</v>
+        <v>111.125</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>77.400000000000006</v>
+        <v>110.95</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E2:E17)</f>
-        <v>1407.5</v>
+        <v>1975.05</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F3:F17)</f>
